--- a/InputData/elec/CCaMC/Capacity Construction and Maint Costs.xlsx
+++ b/InputData/elec/CCaMC/Capacity Construction and Maint Costs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="14360" windowHeight="11020"/>
+    <workbookView xWindow="360" yWindow="60" windowWidth="14355" windowHeight="11025"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="2" r:id="rId1"/>
@@ -18,12 +18,12 @@
     <sheet name="Capital Costs" sheetId="14" r:id="rId9"/>
     <sheet name="CCaMC-BCCpUC" sheetId="6" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="216">
   <si>
     <t>Onshore Wind</t>
   </si>
@@ -1015,6 +1015,15 @@
   </si>
   <si>
     <t>Nuclear, high estimate (2012 USD/MW/yr)</t>
+  </si>
+  <si>
+    <t>preexisting retiring</t>
+  </si>
+  <si>
+    <t>preexisting nonretiring</t>
+  </si>
+  <si>
+    <t>newly built</t>
   </si>
 </sst>
 </file>
@@ -1951,36 +1960,36 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.08984375" style="2"/>
-    <col min="2" max="2" width="71.26953125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="4.36328125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="71.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="4.42578125" style="2" customWidth="1"/>
     <col min="4" max="4" width="76" style="2" customWidth="1"/>
-    <col min="5" max="5" width="2.36328125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="47.08984375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="2.1796875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="29.6328125" style="2" customWidth="1"/>
-    <col min="9" max="11" width="10.7265625" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="9.08984375" style="2"/>
+    <col min="5" max="5" width="2.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="47.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="2.140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="29.5703125" style="2" customWidth="1"/>
+    <col min="9" max="11" width="10.7109375" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
@@ -1993,7 +2002,7 @@
       </c>
       <c r="E5" s="12"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B6" s="24" t="s">
         <v>1</v>
       </c>
@@ -2001,7 +2010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B7" s="2">
         <v>2016</v>
       </c>
@@ -2009,7 +2018,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="29.1" x14ac:dyDescent="0.35">
       <c r="B8" s="74" t="s">
         <v>172</v>
       </c>
@@ -2017,7 +2026,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B9" s="3" t="s">
         <v>173</v>
       </c>
@@ -2025,7 +2034,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B10" s="24" t="s">
         <v>174</v>
       </c>
@@ -2033,10 +2042,10 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B11"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A12" s="11"/>
       <c r="B12" s="29" t="s">
         <v>209</v>
@@ -2045,7 +2054,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A13" s="11"/>
       <c r="B13" s="22" t="s">
         <v>205</v>
@@ -2054,7 +2063,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A14" s="11"/>
       <c r="B14" s="2">
         <v>2014</v>
@@ -2063,7 +2072,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A15" s="11"/>
       <c r="B15" t="s">
         <v>206</v>
@@ -2072,7 +2081,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A16" s="11"/>
       <c r="B16" s="22" t="s">
         <v>207</v>
@@ -2081,14 +2090,14 @@
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A17" s="11"/>
       <c r="B17" s="24" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" s="24" customFormat="1" ht="14.45" x14ac:dyDescent="0.35"/>
+    <row r="19" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A19" s="11"/>
       <c r="B19" s="29" t="s">
         <v>211</v>
@@ -2097,7 +2106,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A20" s="11"/>
       <c r="B20" s="2" t="s">
         <v>178</v>
@@ -2106,7 +2115,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A21" s="11"/>
       <c r="B21" s="2">
         <v>2013</v>
@@ -2115,7 +2124,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A22" s="11"/>
       <c r="B22" s="2" t="s">
         <v>179</v>
@@ -2124,7 +2133,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A23" s="11"/>
       <c r="B23" s="2" t="s">
         <v>180</v>
@@ -2133,11 +2142,11 @@
         <v>185</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A24" s="11"/>
       <c r="B24" s="24"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A25" s="11"/>
       <c r="B25" s="29" t="s">
         <v>196</v>
@@ -2146,7 +2155,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A26" s="11"/>
       <c r="B26" s="2" t="s">
         <v>178</v>
@@ -2155,7 +2164,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A27" s="11"/>
       <c r="B27" s="2">
         <v>2013</v>
@@ -2164,7 +2173,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A28" s="11"/>
       <c r="B28" s="2" t="s">
         <v>179</v>
@@ -2173,7 +2182,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A29" s="11"/>
       <c r="B29" s="2" t="s">
         <v>182</v>
@@ -2182,13 +2191,13 @@
         <v>199</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A30" s="11"/>
       <c r="D30" s="15" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A31" s="11"/>
       <c r="B31" s="7" t="s">
         <v>9</v>
@@ -2201,7 +2210,7 @@
       <c r="J31" s="14"/>
       <c r="K31" s="14"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A32" s="11"/>
       <c r="B32" s="2" t="s">
         <v>97</v>
@@ -2214,7 +2223,7 @@
       <c r="J32" s="14"/>
       <c r="K32" s="14"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A33" s="11"/>
       <c r="B33" s="2">
         <v>2012</v>
@@ -2227,7 +2236,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="11"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A34" s="11"/>
       <c r="B34" s="2" t="s">
         <v>98</v>
@@ -2240,7 +2249,7 @@
       <c r="J34" s="16"/>
       <c r="K34" s="16"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A35" s="11"/>
       <c r="B35" s="10" t="s">
         <v>99</v>
@@ -2253,7 +2262,7 @@
       <c r="J35" s="16"/>
       <c r="K35" s="16"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A36" s="11"/>
       <c r="B36" s="2" t="s">
         <v>100</v>
@@ -2266,7 +2275,7 @@
       <c r="J36" s="16"/>
       <c r="K36" s="16"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A37" s="11"/>
       <c r="D37" s="11"/>
       <c r="E37" s="16"/>
@@ -2277,7 +2286,7 @@
       <c r="J37" s="16"/>
       <c r="K37" s="16"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A38" s="11" t="s">
         <v>31</v>
       </c>
@@ -2290,7 +2299,7 @@
       <c r="J38" s="16"/>
       <c r="K38" s="16"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A39" s="15" t="s">
         <v>201</v>
       </c>
@@ -2303,7 +2312,7 @@
       <c r="J39" s="16"/>
       <c r="K39" s="16"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="15" t="s">
         <v>202</v>
       </c>
@@ -2316,7 +2325,7 @@
       <c r="J40" s="16"/>
       <c r="K40" s="16"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
       <c r="D41" s="11"/>
       <c r="E41" s="16"/>
@@ -2327,7 +2336,7 @@
       <c r="J41" s="16"/>
       <c r="K41" s="16"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="15" t="s">
         <v>187</v>
       </c>
@@ -2340,7 +2349,7 @@
       <c r="J42" s="16"/>
       <c r="K42" s="16"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="15" t="s">
         <v>188</v>
       </c>
@@ -2353,7 +2362,7 @@
       <c r="J43" s="16"/>
       <c r="K43" s="16"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="15" t="s">
         <v>189</v>
       </c>
@@ -2366,7 +2375,7 @@
       <c r="J44" s="16"/>
       <c r="K44" s="16"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="15" t="s">
         <v>190</v>
       </c>
@@ -2379,7 +2388,7 @@
       <c r="J45" s="16"/>
       <c r="K45" s="16"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="15"/>
       <c r="D46" s="11"/>
       <c r="E46" s="16"/>
@@ -2390,7 +2399,7 @@
       <c r="J46" s="16"/>
       <c r="K46" s="16"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="15" t="s">
         <v>191</v>
       </c>
@@ -2403,7 +2412,7 @@
       <c r="J47" s="16"/>
       <c r="K47" s="16"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="15"/>
       <c r="D48" s="11"/>
       <c r="E48" s="16"/>
@@ -2414,7 +2423,7 @@
       <c r="J48" s="16"/>
       <c r="K48" s="16"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="15" t="s">
         <v>186</v>
       </c>
@@ -2428,7 +2437,7 @@
       <c r="J49" s="16"/>
       <c r="K49" s="16"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="15">
         <v>0.97135205460935392</v>
       </c>
@@ -2444,7 +2453,7 @@
       <c r="J50" s="16"/>
       <c r="K50" s="16"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="15">
         <v>1.0680482854395899</v>
       </c>
@@ -2460,7 +2469,7 @@
       <c r="J51" s="16"/>
       <c r="K51" s="16"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>12350</v>
       </c>
@@ -2476,7 +2485,7 @@
       <c r="J52" s="16"/>
       <c r="K52" s="16"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="15"/>
       <c r="B53" s="13"/>
       <c r="D53" s="11"/>
@@ -2488,7 +2497,7 @@
       <c r="J53" s="16"/>
       <c r="K53" s="16"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="15"/>
       <c r="B54" s="13"/>
       <c r="D54" s="11"/>
@@ -2500,7 +2509,7 @@
       <c r="J54" s="16"/>
       <c r="K54" s="16"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="15"/>
       <c r="B55" s="13"/>
       <c r="D55" s="11"/>
@@ -2512,7 +2521,7 @@
       <c r="J55" s="16"/>
       <c r="K55" s="16"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="15"/>
       <c r="B56" s="13"/>
       <c r="D56" s="11"/>
@@ -2524,7 +2533,7 @@
       <c r="J56" s="16"/>
       <c r="K56" s="16"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="15"/>
       <c r="B57" s="13"/>
       <c r="D57" s="11"/>
@@ -2536,7 +2545,7 @@
       <c r="J57" s="16"/>
       <c r="K57" s="16"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="15"/>
       <c r="B58" s="13"/>
       <c r="E58" s="16"/>
@@ -2547,7 +2556,7 @@
       <c r="J58" s="16"/>
       <c r="K58" s="16"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="15"/>
       <c r="B59" s="13"/>
       <c r="D59" s="11"/>
@@ -2559,7 +2568,7 @@
       <c r="J59" s="16"/>
       <c r="K59" s="16"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="15"/>
       <c r="B60" s="13"/>
       <c r="D60" s="11"/>
@@ -2571,7 +2580,7 @@
       <c r="J60" s="16"/>
       <c r="K60" s="16"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="15"/>
       <c r="B61" s="13"/>
       <c r="D61" s="11"/>
@@ -2583,7 +2592,7 @@
       <c r="J61" s="16"/>
       <c r="K61" s="16"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="15"/>
       <c r="B62" s="13"/>
       <c r="D62" s="11"/>
@@ -2595,7 +2604,7 @@
       <c r="J62" s="16"/>
       <c r="K62" s="16"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="15"/>
       <c r="B63" s="13"/>
       <c r="D63" s="11"/>
@@ -2607,7 +2616,7 @@
       <c r="J63" s="16"/>
       <c r="K63" s="16"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="15"/>
       <c r="B64" s="13"/>
       <c r="E64" s="16"/>
@@ -2618,7 +2627,7 @@
       <c r="J64" s="16"/>
       <c r="K64" s="16"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="15"/>
       <c r="B65" s="13"/>
       <c r="D65" s="11"/>
@@ -2630,7 +2639,7 @@
       <c r="J65" s="16"/>
       <c r="K65" s="16"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="11"/>
       <c r="B66" s="13"/>
       <c r="D66" s="11"/>
@@ -2659,19 +2668,19 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.26953125" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
     <col min="3" max="3" width="31" customWidth="1"/>
-    <col min="4" max="7" width="17.26953125" customWidth="1"/>
-    <col min="8" max="8" width="22.6328125" customWidth="1"/>
-    <col min="9" max="9" width="17.26953125" customWidth="1"/>
-    <col min="10" max="10" width="22.36328125" customWidth="1"/>
-    <col min="11" max="11" width="20.90625" customWidth="1"/>
-    <col min="12" max="12" width="28.08984375" customWidth="1"/>
+    <col min="4" max="7" width="17.28515625" customWidth="1"/>
+    <col min="8" max="8" width="22.5703125" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" customWidth="1"/>
+    <col min="10" max="10" width="22.42578125" customWidth="1"/>
+    <col min="11" max="11" width="20.85546875" customWidth="1"/>
+    <col min="12" max="12" width="28.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A1" s="19" t="s">
         <v>7</v>
       </c>
@@ -2709,7 +2718,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>2015</v>
       </c>
@@ -2758,7 +2767,7 @@
         <v>587426.55699177447</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2016</v>
       </c>
@@ -2807,7 +2816,7 @@
         <v>587426.55699177447</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2017</v>
       </c>
@@ -2856,7 +2865,7 @@
         <v>587426.55699177447</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>2018</v>
       </c>
@@ -2905,7 +2914,7 @@
         <v>587426.55699177447</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>2019</v>
       </c>
@@ -2954,7 +2963,7 @@
         <v>587426.55699177447</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>2020</v>
       </c>
@@ -3003,7 +3012,7 @@
         <v>587426.55699177447</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>2021</v>
       </c>
@@ -3052,7 +3061,7 @@
         <v>587426.55699177447</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>2022</v>
       </c>
@@ -3101,7 +3110,7 @@
         <v>587426.55699177447</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>2023</v>
       </c>
@@ -3150,7 +3159,7 @@
         <v>587426.55699177447</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>2024</v>
       </c>
@@ -3199,7 +3208,7 @@
         <v>587426.55699177447</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>2025</v>
       </c>
@@ -3248,7 +3257,7 @@
         <v>587426.55699177447</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>2026</v>
       </c>
@@ -3297,7 +3306,7 @@
         <v>587426.55699177447</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>2027</v>
       </c>
@@ -3346,7 +3355,7 @@
         <v>587426.55699177447</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>2028</v>
       </c>
@@ -3395,7 +3404,7 @@
         <v>587426.55699177447</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>2029</v>
       </c>
@@ -3444,7 +3453,7 @@
         <v>587426.55699177447</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>2030</v>
       </c>
@@ -3493,7 +3502,7 @@
         <v>587426.55699177447</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>2031</v>
       </c>
@@ -3542,7 +3551,7 @@
         <v>587426.55699177447</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>2032</v>
       </c>
@@ -3591,7 +3600,7 @@
         <v>587426.55699177447</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>2033</v>
       </c>
@@ -3640,7 +3649,7 @@
         <v>587426.55699177447</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>2034</v>
       </c>
@@ -3689,7 +3698,7 @@
         <v>587426.55699177447</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>2035</v>
       </c>
@@ -3738,7 +3747,7 @@
         <v>587426.55699177447</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>2036</v>
       </c>
@@ -3787,7 +3796,7 @@
         <v>587426.55699177447</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>2037</v>
       </c>
@@ -3836,7 +3845,7 @@
         <v>587426.55699177447</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>2038</v>
       </c>
@@ -3885,7 +3894,7 @@
         <v>587426.55699177447</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>2039</v>
       </c>
@@ -3934,7 +3943,7 @@
         <v>587426.55699177447</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>2040</v>
       </c>
@@ -3983,7 +3992,7 @@
         <v>587426.55699177447</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>2041</v>
       </c>
@@ -4032,7 +4041,7 @@
         <v>587426.55699177447</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>2042</v>
       </c>
@@ -4081,7 +4090,7 @@
         <v>587426.55699177447</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>2043</v>
       </c>
@@ -4130,7 +4139,7 @@
         <v>587426.55699177447</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>2044</v>
       </c>
@@ -4179,7 +4188,7 @@
         <v>587426.55699177447</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>2045</v>
       </c>
@@ -4228,7 +4237,7 @@
         <v>587426.55699177447</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>2046</v>
       </c>
@@ -4277,7 +4286,7 @@
         <v>587426.55699177447</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>2047</v>
       </c>
@@ -4326,7 +4335,7 @@
         <v>587426.55699177447</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>2048</v>
       </c>
@@ -4375,7 +4384,7 @@
         <v>587426.55699177447</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>2049</v>
       </c>
@@ -4424,7 +4433,7 @@
         <v>587426.55699177447</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>2050</v>
       </c>
@@ -4473,43 +4482,43 @@
         <v>587426.55699177447</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B38" s="18"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B39" s="18"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B40" s="18"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B41" s="18"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B42" s="18"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B43" s="18"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B44" s="18"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B45" s="18"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B46" s="18"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B47" s="18"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B48" s="18"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" s="18"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" s="18"/>
     </row>
   </sheetData>
@@ -4525,13 +4534,13 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.7265625" customWidth="1"/>
-    <col min="2" max="2" width="52.6328125" customWidth="1"/>
-    <col min="3" max="3" width="34.36328125" customWidth="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="52.5703125" customWidth="1"/>
+    <col min="3" max="3" width="34.42578125" customWidth="1"/>
     <col min="4" max="4" width="31" customWidth="1"/>
-    <col min="5" max="5" width="29.08984375" customWidth="1"/>
+    <col min="5" max="5" width="29.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -4884,12 +4893,12 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.90625" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A1" s="38" t="s">
         <v>146</v>
       </c>
@@ -4902,7 +4911,7 @@
       <c r="H1" s="35"/>
       <c r="I1" s="35"/>
     </row>
-    <row r="2" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A2" s="38" t="s">
         <v>147</v>
       </c>
@@ -4915,7 +4924,7 @@
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="59" t="s">
         <v>148</v>
       </c>
@@ -4976,7 +4985,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A6" s="41" t="s">
         <v>123</v>
       </c>
@@ -5005,7 +5014,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A7" s="43" t="s">
         <v>131</v>
       </c>
@@ -5018,7 +5027,7 @@
       <c r="H7" s="44"/>
       <c r="I7" s="44"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A8" s="45" t="s">
         <v>150</v>
       </c>
@@ -5047,7 +5056,7 @@
         <v>139.5</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A9" s="46" t="s">
         <v>132</v>
       </c>
@@ -5060,7 +5069,7 @@
       <c r="H9" s="45"/>
       <c r="I9" s="45"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A10" s="46" t="s">
         <v>133</v>
       </c>
@@ -5089,7 +5098,7 @@
         <v>58.1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A11" s="46" t="s">
         <v>134</v>
       </c>
@@ -5118,7 +5127,7 @@
         <v>57.2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A12" s="46" t="s">
         <v>135</v>
       </c>
@@ -5147,7 +5156,7 @@
         <v>84.8</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A13" s="48" t="s">
         <v>136</v>
       </c>
@@ -5176,7 +5185,7 @@
         <v>110.8</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="77" t="s">
         <v>137</v>
       </c>
@@ -5189,7 +5198,7 @@
       <c r="H14" s="77"/>
       <c r="I14" s="77"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A15" s="50" t="s">
         <v>138</v>
       </c>
@@ -5218,7 +5227,7 @@
         <v>94.7</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A16" s="46" t="s">
         <v>139</v>
       </c>
@@ -5247,7 +5256,7 @@
         <v>102.8</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A17" s="46" t="s">
         <v>140</v>
       </c>
@@ -5276,7 +5285,7 @@
         <v>41.9</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A18" s="46" t="s">
         <v>141</v>
       </c>
@@ -5305,7 +5314,7 @@
         <v>96.1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A19" s="63" t="s">
         <v>142</v>
       </c>
@@ -5318,7 +5327,7 @@
       <c r="H19" s="56"/>
       <c r="I19" s="45"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A20" s="46" t="s">
         <v>143</v>
       </c>
@@ -5347,7 +5356,7 @@
         <v>56.9</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="46" t="s">
         <v>144</v>
       </c>
@@ -5376,7 +5385,7 @@
         <v>146.69999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="66" t="s">
         <v>153</v>
       </c>
@@ -5405,7 +5414,7 @@
         <v>66.3</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="66" t="s">
         <v>152</v>
       </c>
@@ -5434,7 +5443,7 @@
         <v>179.9</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="69" t="s">
         <v>154</v>
       </c>
@@ -5463,38 +5472,38 @@
         <v>67.8</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" s="24" customFormat="1" ht="14.45" x14ac:dyDescent="0.35"/>
+    <row r="28" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A28" s="24"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A29" s="24"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A30" s="24"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A31" s="24"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A32" s="24"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A33" s="24"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A34" s="24"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A35" s="24"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A36" s="24"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A37" s="24"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A38" s="24"/>
     </row>
   </sheetData>
@@ -5513,16 +5522,16 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="25.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.6328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
@@ -5925,20 +5934,20 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="80.36328125" style="37" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.26953125" style="37" customWidth="1"/>
-    <col min="3" max="3" width="24.81640625" style="37" customWidth="1"/>
-    <col min="4" max="4" width="25.26953125" style="37" customWidth="1"/>
-    <col min="5" max="5" width="23.54296875" style="37" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7265625" style="37"/>
-    <col min="7" max="7" width="8.90625" style="37" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7265625" style="24"/>
-    <col min="9" max="16384" width="8.7265625" style="37"/>
+    <col min="1" max="1" width="80.42578125" style="37" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" style="37" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" style="37" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" style="37" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" style="37" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" style="37"/>
+    <col min="7" max="7" width="8.85546875" style="37" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" style="24"/>
+    <col min="9" max="16384" width="8.7109375" style="37"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A1" s="29" t="s">
         <v>175</v>
       </c>
@@ -5949,7 +5958,7 @@
       <c r="F1" s="29"/>
       <c r="G1" s="29"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A2" s="37" t="s">
         <v>212</v>
       </c>
@@ -5957,7 +5966,7 @@
         <v>122880</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A3" s="37" t="s">
         <v>168</v>
       </c>
@@ -5966,7 +5975,7 @@
         <v>44500</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A5" s="29" t="s">
         <v>159</v>
       </c>
@@ -5977,7 +5986,7 @@
       <c r="F5" s="29"/>
       <c r="G5" s="29"/>
     </row>
-    <row r="6" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A6" s="37" t="s">
         <v>160</v>
       </c>
@@ -5996,7 +6005,7 @@
       <c r="F6" s="72"/>
       <c r="G6" s="72"/>
     </row>
-    <row r="7" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A7" s="24" t="s">
         <v>23</v>
       </c>
@@ -6019,7 +6028,7 @@
       <c r="F7" s="72"/>
       <c r="G7" s="72"/>
     </row>
-    <row r="8" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A8" s="24" t="s">
         <v>27</v>
       </c>
@@ -6052,40 +6061,65 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.6328125" customWidth="1"/>
-    <col min="2" max="2" width="23.08984375" customWidth="1"/>
+    <col min="1" max="1" width="23.5703125" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" customWidth="1"/>
+    <col min="3" max="3" width="28" customWidth="1"/>
+    <col min="4" max="4" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="B1" s="21" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+        <v>213</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>22</v>
       </c>
       <c r="B2">
         <v>31180</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C2">
+        <f>$B2</f>
+        <v>31180</v>
+      </c>
+      <c r="D2" s="24">
+        <f>$B2</f>
+        <v>31180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>33</v>
       </c>
       <c r="B3">
         <v>15370</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C3" s="24">
+        <f t="shared" ref="C3:D12" si="0">$B3</f>
+        <v>15370</v>
+      </c>
+      <c r="D3" s="24">
+        <f t="shared" si="0"/>
+        <v>15370</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -6093,32 +6127,64 @@
         <f>'O&amp;M Costs'!E7</f>
         <v>104050.12962553914</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C4" s="24">
+        <f t="shared" si="0"/>
+        <v>104050.12962553914</v>
+      </c>
+      <c r="D4" s="24">
+        <f t="shared" si="0"/>
+        <v>104050.12962553914</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>24</v>
       </c>
       <c r="B5">
         <v>14130</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C5" s="24">
+        <f t="shared" si="0"/>
+        <v>14130</v>
+      </c>
+      <c r="D5" s="24">
+        <f t="shared" si="0"/>
+        <v>14130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>25</v>
       </c>
       <c r="B6">
         <v>39550</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C6" s="24">
+        <f t="shared" si="0"/>
+        <v>39550</v>
+      </c>
+      <c r="D6" s="24">
+        <f t="shared" si="0"/>
+        <v>39550</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>26</v>
       </c>
       <c r="B7">
         <v>24690</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C7" s="24">
+        <f t="shared" si="0"/>
+        <v>24690</v>
+      </c>
+      <c r="D7" s="24">
+        <f t="shared" si="0"/>
+        <v>24690</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -6126,36 +6192,76 @@
         <f>'O&amp;M Costs'!E8</f>
         <v>44500.000000000007</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C8" s="24">
+        <f t="shared" si="0"/>
+        <v>44500.000000000007</v>
+      </c>
+      <c r="D8" s="24">
+        <f t="shared" si="0"/>
+        <v>44500.000000000007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>28</v>
       </c>
       <c r="B9">
         <v>105630</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C9" s="24">
+        <f t="shared" si="0"/>
+        <v>105630</v>
+      </c>
+      <c r="D9" s="24">
+        <f t="shared" si="0"/>
+        <v>105630</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>34</v>
       </c>
       <c r="B10">
         <v>100000</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C10" s="24">
+        <f t="shared" si="0"/>
+        <v>100000</v>
+      </c>
+      <c r="D10" s="24">
+        <f t="shared" si="0"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>35</v>
       </c>
       <c r="B11">
         <v>7040</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C11" s="24">
+        <f t="shared" si="0"/>
+        <v>7040</v>
+      </c>
+      <c r="D11" s="24">
+        <f t="shared" si="0"/>
+        <v>7040</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>36</v>
       </c>
       <c r="B12">
+        <v>7040</v>
+      </c>
+      <c r="C12" s="24">
+        <f t="shared" si="0"/>
+        <v>7040</v>
+      </c>
+      <c r="D12" s="24">
+        <f t="shared" si="0"/>
         <v>7040</v>
       </c>
     </row>
@@ -6169,40 +6275,65 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.6328125" customWidth="1"/>
-    <col min="2" max="2" width="23.08984375" customWidth="1"/>
+    <col min="1" max="1" width="23.5703125" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" customWidth="1"/>
+    <col min="3" max="3" width="24" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="B1" s="21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+        <v>213</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>22</v>
       </c>
       <c r="B2">
         <v>4.47</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C2">
+        <f>$B2</f>
+        <v>4.47</v>
+      </c>
+      <c r="D2" s="24">
+        <f>$B2</f>
+        <v>4.47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>33</v>
       </c>
       <c r="B3">
         <v>3.27</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C3" s="24">
+        <f t="shared" ref="C3:D12" si="0">$B3</f>
+        <v>3.27</v>
+      </c>
+      <c r="D3" s="24">
+        <f t="shared" si="0"/>
+        <v>3.27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -6210,32 +6341,64 @@
         <f>'O&amp;M Costs'!D7</f>
         <v>2.3883650906216212</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C4" s="24">
+        <f t="shared" si="0"/>
+        <v>2.3883650906216212</v>
+      </c>
+      <c r="D4" s="24">
+        <f t="shared" si="0"/>
+        <v>2.3883650906216212</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>24</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C5" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D5" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>25</v>
       </c>
       <c r="B6" s="20">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C6" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D6" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>26</v>
       </c>
       <c r="B7" s="20">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C7" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D7" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -6243,36 +6406,76 @@
         <f>'O&amp;M Costs'!D8</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C8" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D8" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>28</v>
       </c>
       <c r="B9">
         <v>5.26</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C9" s="24">
+        <f t="shared" si="0"/>
+        <v>5.26</v>
+      </c>
+      <c r="D9" s="24">
+        <f t="shared" si="0"/>
+        <v>5.26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A10" s="24" t="s">
         <v>34</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C10" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D10" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A11" s="24" t="s">
         <v>35</v>
       </c>
       <c r="B11">
         <v>10.37</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C11" s="24">
+        <f t="shared" si="0"/>
+        <v>10.37</v>
+      </c>
+      <c r="D11" s="24">
+        <f t="shared" si="0"/>
+        <v>10.37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A12" s="24" t="s">
         <v>36</v>
       </c>
       <c r="B12">
+        <v>10.37</v>
+      </c>
+      <c r="C12" s="24">
+        <f t="shared" si="0"/>
+        <v>10.37</v>
+      </c>
+      <c r="D12" s="24">
+        <f t="shared" si="0"/>
         <v>10.37</v>
       </c>
     </row>
@@ -6289,15 +6492,15 @@
       <selection activeCell="E124" sqref="E124"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.26953125" customWidth="1"/>
-    <col min="2" max="2" width="42.6328125" customWidth="1"/>
-    <col min="3" max="3" width="20.36328125" customWidth="1"/>
-    <col min="8" max="8" width="12.6328125" customWidth="1"/>
-    <col min="10" max="10" width="13.08984375" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="42.5703125" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" customWidth="1"/>
     <col min="11" max="11" width="13" customWidth="1"/>
-    <col min="12" max="12" width="15.90625" customWidth="1"/>
+    <col min="12" max="12" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -10519,11 +10722,11 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.54296875" style="24" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" style="24" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="133" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
